--- a/attendance-files/PM/PM Attendance - B.xlsx
+++ b/attendance-files/PM/PM Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="157">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -968,9 +968,6 @@
     <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -979,6 +976,9 @@
     </xf>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1237,7 +1237,9 @@
     <col customWidth="1" min="3" max="3" width="29.57"/>
     <col customWidth="1" min="4" max="6" width="8.71"/>
     <col customWidth="1" min="7" max="7" width="10.29"/>
-    <col customWidth="1" min="8" max="27" width="8.71"/>
+    <col customWidth="1" min="8" max="19" width="8.71"/>
+    <col customWidth="1" min="20" max="26" width="10.0"/>
+    <col customWidth="1" min="27" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1422,15 +1424,33 @@
       <c r="Q5" s="24">
         <v>45877.0</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
+      <c r="R5" s="24">
+        <v>45880.0</v>
+      </c>
+      <c r="S5" s="24">
+        <v>45882.0</v>
+      </c>
+      <c r="T5" s="24">
+        <v>45887.0</v>
+      </c>
+      <c r="U5" s="24">
+        <v>45889.0</v>
+      </c>
+      <c r="V5" s="24">
+        <v>45891.0</v>
+      </c>
+      <c r="W5" s="24">
+        <v>45894.0</v>
+      </c>
+      <c r="X5" s="24">
+        <v>45896.0</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>45898.0</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>45900.0</v>
+      </c>
       <c r="AA5" s="6"/>
     </row>
     <row r="6" ht="42.75" customHeight="1">
@@ -1549,16 +1569,16 @@
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
       <c r="P7" s="34"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1592,16 +1612,16 @@
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1619,7 +1639,7 @@
       </c>
       <c r="E9" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
@@ -1637,16 +1657,18 @@
         <v>40</v>
       </c>
       <c r="P9" s="34"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1664,7 +1686,7 @@
       </c>
       <c r="E10" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
@@ -1684,16 +1706,18 @@
       </c>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1711,7 +1735,7 @@
       </c>
       <c r="E11" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -1722,7 +1746,7 @@
       <c r="I11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="36"/>
@@ -1731,16 +1755,18 @@
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -1766,7 +1792,7 @@
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="34"/>
@@ -1780,16 +1806,16 @@
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -1825,16 +1851,16 @@
       <c r="N13" s="34"/>
       <c r="O13" s="36"/>
       <c r="P13" s="34"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -1852,7 +1878,7 @@
       </c>
       <c r="E14" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
@@ -1872,16 +1898,20 @@
         <v>40</v>
       </c>
       <c r="P14" s="34"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -1919,16 +1949,16 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -1946,7 +1976,7 @@
       </c>
       <c r="E16" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
@@ -1966,16 +1996,18 @@
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -1993,7 +2025,7 @@
       </c>
       <c r="E17" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2015,16 +2047,20 @@
         <v>40</v>
       </c>
       <c r="P17" s="34"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2042,7 +2078,7 @@
       </c>
       <c r="E18" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
@@ -2057,21 +2093,25 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="37" t="s">
         <v>40</v>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="Q18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2109,16 +2149,16 @@
         <v>40</v>
       </c>
       <c r="P19" s="34"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2156,16 +2196,16 @@
       <c r="N20" s="36"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2183,7 +2223,7 @@
       </c>
       <c r="E21" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2193,7 +2233,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="36"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="37" t="s">
         <v>40</v>
       </c>
       <c r="L21" s="34"/>
@@ -2203,16 +2243,18 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2230,7 +2272,7 @@
       </c>
       <c r="E22" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
@@ -2239,7 +2281,7 @@
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="34"/>
@@ -2248,16 +2290,20 @@
       <c r="N22" s="34"/>
       <c r="O22" s="36"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="Q22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2275,7 +2321,7 @@
       </c>
       <c r="E23" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
@@ -2297,16 +2343,18 @@
       <c r="P23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2324,7 +2372,7 @@
       </c>
       <c r="E24" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
@@ -2342,16 +2390,20 @@
       <c r="N24" s="34"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="36"/>
+      <c r="T24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2369,7 +2421,7 @@
       </c>
       <c r="E25" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2384,21 +2436,23 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="37" t="s">
         <v>40</v>
       </c>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="Q25" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2416,7 +2470,7 @@
       </c>
       <c r="E26" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2432,16 +2486,20 @@
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="Q26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2459,7 +2517,7 @@
       </c>
       <c r="E27" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
@@ -2477,16 +2535,20 @@
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="Q27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2510,7 +2572,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="36"/>
@@ -2526,16 +2588,16 @@
       <c r="N28" s="34"/>
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2569,16 +2631,16 @@
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2616,16 +2678,16 @@
       </c>
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2643,7 +2705,7 @@
       </c>
       <c r="E31" s="34">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
@@ -2667,16 +2729,18 @@
       <c r="N31" s="36"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2714,16 +2778,16 @@
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
       <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2741,7 +2805,7 @@
       </c>
       <c r="E33" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -2757,16 +2821,18 @@
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2808,16 +2874,16 @@
       </c>
       <c r="O34" s="36"/>
       <c r="P34" s="34"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2843,28 +2909,28 @@
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="37" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M35" s="34"/>
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -2891,7 +2957,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K36" s="35" t="s">
@@ -2904,16 +2970,16 @@
       <c r="N36" s="34"/>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -2948,19 +3014,19 @@
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
-      <c r="P37" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
+      <c r="P37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -2987,7 +3053,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K38" s="36"/>
@@ -2996,16 +3062,16 @@
       <c r="N38" s="34"/>
       <c r="O38" s="34"/>
       <c r="P38" s="36"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3023,7 +3089,7 @@
       </c>
       <c r="E39" s="34">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3032,7 +3098,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="34"/>
@@ -3040,23 +3106,25 @@
         <v>40</v>
       </c>
       <c r="M39" s="34"/>
-      <c r="N39" s="38" t="s">
+      <c r="N39" s="37" t="s">
         <v>40</v>
       </c>
       <c r="O39" s="34"/>
       <c r="P39" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="Q39" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3074,7 +3142,7 @@
       </c>
       <c r="E40" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
@@ -3090,16 +3158,20 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3117,7 +3189,7 @@
       </c>
       <c r="E41" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
@@ -3135,16 +3207,18 @@
       <c r="N41" s="36"/>
       <c r="O41" s="34"/>
       <c r="P41" s="34"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3182,16 +3256,16 @@
       </c>
       <c r="O42" s="34"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3209,7 +3283,7 @@
       </c>
       <c r="E43" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -3227,16 +3301,18 @@
       <c r="N43" s="36"/>
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3254,7 +3330,7 @@
       </c>
       <c r="E44" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
@@ -3272,16 +3348,20 @@
       <c r="N44" s="36"/>
       <c r="O44" s="34"/>
       <c r="P44" s="34"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
+      <c r="Q44" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3299,7 +3379,7 @@
       </c>
       <c r="E45" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -3315,16 +3395,18 @@
       <c r="N45" s="34"/>
       <c r="O45" s="34"/>
       <c r="P45" s="34"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3342,7 +3424,7 @@
       </c>
       <c r="E46" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
@@ -3360,16 +3442,18 @@
       <c r="N46" s="36"/>
       <c r="O46" s="34"/>
       <c r="P46" s="34"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3387,7 +3471,7 @@
       </c>
       <c r="E47" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
@@ -3407,16 +3491,18 @@
       </c>
       <c r="O47" s="34"/>
       <c r="P47" s="34"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3453,19 +3539,19 @@
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
       <c r="O48" s="36"/>
-      <c r="P48" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
+      <c r="P48" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3483,13 +3569,13 @@
       </c>
       <c r="E49" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="34"/>
@@ -3505,16 +3591,18 @@
       </c>
       <c r="O49" s="36"/>
       <c r="P49" s="34"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3532,7 +3620,7 @@
       </c>
       <c r="E50" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -3552,16 +3640,20 @@
       <c r="N50" s="34"/>
       <c r="O50" s="34"/>
       <c r="P50" s="36"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
+      <c r="Q50" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3599,16 +3691,16 @@
       <c r="N51" s="36"/>
       <c r="O51" s="34"/>
       <c r="P51" s="34"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -3626,7 +3718,7 @@
       </c>
       <c r="E52" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
@@ -3641,21 +3733,23 @@
       <c r="K52" s="36"/>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
-      <c r="N52" s="38" t="s">
+      <c r="N52" s="37" t="s">
         <v>40</v>
       </c>
       <c r="O52" s="34"/>
       <c r="P52" s="34"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -3673,7 +3767,7 @@
       </c>
       <c r="E53" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -3688,21 +3782,25 @@
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="38" t="s">
+      <c r="N53" s="37" t="s">
         <v>40</v>
       </c>
       <c r="O53" s="34"/>
       <c r="P53" s="34"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -3720,7 +3818,7 @@
       </c>
       <c r="E54" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
@@ -3740,16 +3838,18 @@
       <c r="N54" s="36"/>
       <c r="O54" s="34"/>
       <c r="P54" s="34"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -3767,7 +3867,7 @@
       </c>
       <c r="E55" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -3778,23 +3878,25 @@
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="38" t="s">
+      <c r="L55" s="37" t="s">
         <v>40</v>
       </c>
       <c r="M55" s="34"/>
       <c r="N55" s="34"/>
       <c r="O55" s="34"/>
       <c r="P55" s="34"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -3818,7 +3920,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="34"/>
@@ -3832,16 +3934,16 @@
       <c r="N56" s="34"/>
       <c r="O56" s="34"/>
       <c r="P56" s="34"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -3859,14 +3961,14 @@
       </c>
       <c r="E57" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="34"/>
-      <c r="H57" s="38" t="s">
+      <c r="H57" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I57" s="34"/>
@@ -3877,16 +3979,20 @@
       <c r="N57" s="34"/>
       <c r="O57" s="34"/>
       <c r="P57" s="34"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S57" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -3922,16 +4028,16 @@
       <c r="N58" s="34"/>
       <c r="O58" s="34"/>
       <c r="P58" s="34"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="36"/>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -3949,7 +4055,7 @@
       </c>
       <c r="E59" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
@@ -3967,16 +4073,18 @@
       <c r="N59" s="34"/>
       <c r="O59" s="34"/>
       <c r="P59" s="34"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36"/>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4012,16 +4120,16 @@
       <c r="N60" s="34"/>
       <c r="O60" s="34"/>
       <c r="P60" s="34"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4039,7 +4147,7 @@
       </c>
       <c r="E61" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -4057,16 +4165,18 @@
       <c r="N61" s="34"/>
       <c r="O61" s="34"/>
       <c r="P61" s="34"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4091,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="36"/>
-      <c r="H62" s="38" t="s">
+      <c r="H62" s="37" t="s">
         <v>40</v>
       </c>
       <c r="I62" s="34"/>
@@ -4108,16 +4218,16 @@
       </c>
       <c r="O62" s="34"/>
       <c r="P62" s="34"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4151,7 +4261,7 @@
       </c>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
-      <c r="M63" s="38" t="s">
+      <c r="M63" s="37" t="s">
         <v>40</v>
       </c>
       <c r="N63" s="35" t="s">
@@ -4159,16 +4269,16 @@
       </c>
       <c r="O63" s="34"/>
       <c r="P63" s="34"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="36"/>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4186,7 +4296,7 @@
       </c>
       <c r="E64" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -4206,16 +4316,18 @@
       <c r="P64" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4233,7 +4345,7 @@
       </c>
       <c r="E65" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4253,24 +4365,26 @@
       <c r="N65" s="34"/>
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
         <v>60.0</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="33" t="s">
         <v>10</v>
       </c>
@@ -4292,16 +4406,16 @@
       <c r="N66" s="34"/>
       <c r="O66" s="34"/>
       <c r="P66" s="36"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4331,16 +4445,16 @@
       <c r="N67" s="34"/>
       <c r="O67" s="34"/>
       <c r="P67" s="34"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4370,16 +4484,16 @@
       <c r="N68" s="34"/>
       <c r="O68" s="34"/>
       <c r="P68" s="34"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -4409,16 +4523,16 @@
       <c r="N69" s="34"/>
       <c r="O69" s="34"/>
       <c r="P69" s="34"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -4448,16 +4562,16 @@
       <c r="N70" s="34"/>
       <c r="O70" s="34"/>
       <c r="P70" s="34"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -4487,16 +4601,16 @@
       <c r="N71" s="36"/>
       <c r="O71" s="34"/>
       <c r="P71" s="34"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -4526,16 +4640,16 @@
       <c r="N72" s="36"/>
       <c r="O72" s="34"/>
       <c r="P72" s="34"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="37"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -4565,16 +4679,16 @@
       <c r="N73" s="34"/>
       <c r="O73" s="34"/>
       <c r="P73" s="34"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -4604,16 +4718,16 @@
       <c r="N74" s="34"/>
       <c r="O74" s="34"/>
       <c r="P74" s="34"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -4643,16 +4757,16 @@
       <c r="N75" s="34"/>
       <c r="O75" s="34"/>
       <c r="P75" s="34"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -4682,16 +4796,16 @@
       <c r="N76" s="36"/>
       <c r="O76" s="34"/>
       <c r="P76" s="34"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -4721,16 +4835,16 @@
       <c r="N77" s="34"/>
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
-      <c r="Z77" s="37"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -4760,16 +4874,16 @@
       <c r="N78" s="36"/>
       <c r="O78" s="34"/>
       <c r="P78" s="34"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
-      <c r="Z78" s="37"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -4799,16 +4913,16 @@
       <c r="N79" s="34"/>
       <c r="O79" s="34"/>
       <c r="P79" s="36"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="37"/>
-      <c r="Z79" s="37"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -4838,16 +4952,16 @@
       <c r="N80" s="34"/>
       <c r="O80" s="34"/>
       <c r="P80" s="34"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
-      <c r="Z80" s="37"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -4877,16 +4991,16 @@
       <c r="N81" s="34"/>
       <c r="O81" s="34"/>
       <c r="P81" s="36"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -4916,16 +5030,16 @@
       <c r="N82" s="34"/>
       <c r="O82" s="34"/>
       <c r="P82" s="34"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="37"/>
-      <c r="Z82" s="37"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -4955,16 +5069,16 @@
       <c r="N83" s="34"/>
       <c r="O83" s="34"/>
       <c r="P83" s="34"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
-      <c r="Z83" s="37"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -4994,16 +5108,16 @@
       <c r="N84" s="34"/>
       <c r="O84" s="34"/>
       <c r="P84" s="34"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="40"/>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -5033,16 +5147,16 @@
       <c r="N85" s="36"/>
       <c r="O85" s="34"/>
       <c r="P85" s="34"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="37"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
+      <c r="Z85" s="40"/>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -5072,16 +5186,16 @@
       <c r="N86" s="36"/>
       <c r="O86" s="34"/>
       <c r="P86" s="34"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
-      <c r="Z86" s="37"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -5111,24 +5225,24 @@
       <c r="N87" s="44"/>
       <c r="O87" s="44"/>
       <c r="P87" s="44"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
-      <c r="Z87" s="37"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="34">
         <v>82.0</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="33" t="s">
         <v>10</v>
       </c>
@@ -5150,24 +5264,24 @@
       <c r="N88" s="44"/>
       <c r="O88" s="44"/>
       <c r="P88" s="44"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="34">
         <v>83.0</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="33" t="s">
         <v>10</v>
       </c>
@@ -5189,24 +5303,24 @@
       <c r="N89" s="44"/>
       <c r="O89" s="44"/>
       <c r="P89" s="44"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
-      <c r="Z89" s="37"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="34">
         <v>84.0</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="33" t="s">
         <v>10</v>
       </c>
@@ -5228,24 +5342,24 @@
       <c r="N90" s="44"/>
       <c r="O90" s="44"/>
       <c r="P90" s="44"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
-      <c r="Z90" s="37"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
+      <c r="Z90" s="40"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="34">
         <v>85.0</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="33" t="s">
         <v>10</v>
       </c>
@@ -5267,24 +5381,24 @@
       <c r="N91" s="44"/>
       <c r="O91" s="44"/>
       <c r="P91" s="44"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="40"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="34">
         <v>86.0</v>
       </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="33" t="s">
         <v>10</v>
       </c>
@@ -5306,16 +5420,16 @@
       <c r="N92" s="44"/>
       <c r="O92" s="44"/>
       <c r="P92" s="44"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="37"/>
-      <c r="Y92" s="37"/>
-      <c r="Z92" s="37"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
+      <c r="Z92" s="40"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -11835,7 +11949,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P92">
+  <conditionalFormatting sqref="G7:P92 Q7:Z65">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>

--- a/attendance-files/PM/PM Attendance - B.xlsx
+++ b/attendance-files/PM/PM Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="157">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="E7" s="34">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:Z7,"P")</f>
@@ -1574,10 +1574,14 @@
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
+      <c r="V7" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W7" s="36"/>
       <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
+      <c r="Y7" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z7" s="36"/>
       <c r="AA7" s="19"/>
     </row>
@@ -1596,7 +1600,7 @@
       </c>
       <c r="E8" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
@@ -1619,7 +1623,9 @@
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
       <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
+      <c r="X8" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
       <c r="AA8" s="19"/>
@@ -1639,7 +1645,7 @@
       </c>
       <c r="E9" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
@@ -1666,7 +1672,9 @@
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
       <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
+      <c r="X9" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="19"/>
@@ -1735,7 +1743,7 @@
       </c>
       <c r="E11" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -1765,7 +1773,9 @@
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
+      <c r="Y11" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z11" s="36"/>
       <c r="AA11" s="19"/>
     </row>
@@ -1784,7 +1794,7 @@
       </c>
       <c r="E12" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -1811,10 +1821,16 @@
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="V12" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
+      <c r="X12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z12" s="36"/>
       <c r="AA12" s="19"/>
     </row>
@@ -1833,7 +1849,7 @@
       </c>
       <c r="E13" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -1856,10 +1872,14 @@
       <c r="S13" s="36"/>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="V13" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
+      <c r="Y13" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z13" s="36"/>
       <c r="AA13" s="19"/>
     </row>
@@ -1929,7 +1949,7 @@
       </c>
       <c r="E15" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -1954,8 +1974,12 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
+      <c r="V15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -1976,7 +2000,7 @@
       </c>
       <c r="E16" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
@@ -2005,7 +2029,9 @@
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
       <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
+      <c r="X16" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
       <c r="AA16" s="19"/>
@@ -2129,7 +2155,7 @@
       </c>
       <c r="E19" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2156,8 +2182,12 @@
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
+      <c r="X19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z19" s="36"/>
       <c r="AA19" s="19"/>
     </row>
@@ -2176,7 +2206,7 @@
       </c>
       <c r="E20" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2201,7 +2231,9 @@
       <c r="S20" s="36"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="V20" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
@@ -2223,7 +2255,7 @@
       </c>
       <c r="E21" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2250,7 +2282,9 @@
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="V21" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="36"/>
@@ -2272,7 +2306,7 @@
       </c>
       <c r="E22" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
@@ -2300,7 +2334,9 @@
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
+      <c r="W22" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
       <c r="Z22" s="36"/>
@@ -2470,7 +2506,7 @@
       </c>
       <c r="E26" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2497,8 +2533,12 @@
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
       <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
+      <c r="X26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z26" s="36"/>
       <c r="AA26" s="19"/>
     </row>
@@ -2615,7 +2655,7 @@
       </c>
       <c r="E29" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -2637,9 +2677,13 @@
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
+      <c r="Y29" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z29" s="36"/>
       <c r="AA29" s="19"/>
     </row>
@@ -2758,7 +2802,7 @@
       </c>
       <c r="E32" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -2786,7 +2830,9 @@
       <c r="V32" s="36"/>
       <c r="W32" s="36"/>
       <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
+      <c r="Y32" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z32" s="36"/>
       <c r="AA32" s="19"/>
     </row>
@@ -2805,7 +2851,7 @@
       </c>
       <c r="E33" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -2830,7 +2876,9 @@
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
       <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
+      <c r="X33" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y33" s="36"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="19"/>
@@ -2901,7 +2949,7 @@
       </c>
       <c r="E35" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
@@ -2928,8 +2976,12 @@
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
       <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
+      <c r="X35" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z35" s="36"/>
       <c r="AA35" s="19"/>
     </row>
@@ -2997,7 +3049,7 @@
       </c>
       <c r="E37" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3023,7 +3075,9 @@
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
+      <c r="W37" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X37" s="36"/>
       <c r="Y37" s="36"/>
       <c r="Z37" s="36"/>
@@ -3044,7 +3098,7 @@
       </c>
       <c r="E38" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
@@ -3068,8 +3122,12 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
+      <c r="W38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="19"/>
@@ -3142,7 +3200,7 @@
       </c>
       <c r="E40" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
@@ -3168,9 +3226,15 @@
       </c>
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
+      <c r="W40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z40" s="36"/>
       <c r="AA40" s="19"/>
     </row>
@@ -3189,7 +3253,7 @@
       </c>
       <c r="E41" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
@@ -3214,8 +3278,12 @@
       <c r="U41" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
+      <c r="V41" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="W41" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X41" s="36"/>
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
@@ -3236,7 +3304,7 @@
       </c>
       <c r="E42" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -3262,9 +3330,13 @@
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
+      <c r="W42" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
+      <c r="Y42" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z42" s="36"/>
       <c r="AA42" s="19"/>
     </row>
@@ -3283,7 +3355,7 @@
       </c>
       <c r="E43" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -3310,8 +3382,12 @@
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
       <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
+      <c r="X43" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z43" s="36"/>
       <c r="AA43" s="19"/>
     </row>
@@ -3379,7 +3455,7 @@
       </c>
       <c r="E45" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -3404,7 +3480,9 @@
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
       <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
+      <c r="X45" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="19"/>
@@ -3424,7 +3502,7 @@
       </c>
       <c r="E46" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
@@ -3451,7 +3529,9 @@
       </c>
       <c r="V46" s="37"/>
       <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
+      <c r="X46" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y46" s="36"/>
       <c r="Z46" s="36"/>
       <c r="AA46" s="19"/>
@@ -3471,7 +3551,7 @@
       </c>
       <c r="E47" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
@@ -3498,7 +3578,9 @@
       </c>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
+      <c r="V47" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W47" s="36"/>
       <c r="X47" s="36"/>
       <c r="Y47" s="36"/>
@@ -3520,7 +3602,7 @@
       </c>
       <c r="E48" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
@@ -3547,7 +3629,9 @@
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
+      <c r="V48" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W48" s="36"/>
       <c r="X48" s="36"/>
       <c r="Y48" s="36"/>
@@ -3620,7 +3704,7 @@
       </c>
       <c r="E50" s="34">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -3652,7 +3736,9 @@
       <c r="V50" s="37"/>
       <c r="W50" s="36"/>
       <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
+      <c r="Y50" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z50" s="36"/>
       <c r="AA50" s="19"/>
     </row>
@@ -3671,7 +3757,7 @@
       </c>
       <c r="E51" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -3696,7 +3782,9 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
+      <c r="V51" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W51" s="36"/>
       <c r="X51" s="36"/>
       <c r="Y51" s="36"/>
@@ -3718,7 +3806,7 @@
       </c>
       <c r="E52" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
@@ -3745,7 +3833,9 @@
       </c>
       <c r="T52" s="36"/>
       <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
+      <c r="V52" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W52" s="36"/>
       <c r="X52" s="36"/>
       <c r="Y52" s="36"/>
@@ -3818,7 +3908,7 @@
       </c>
       <c r="E54" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
@@ -3845,7 +3935,9 @@
       </c>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
+      <c r="V54" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="W54" s="36"/>
       <c r="X54" s="36"/>
       <c r="Y54" s="36"/>
@@ -3867,7 +3959,7 @@
       </c>
       <c r="E55" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -3894,8 +3986,12 @@
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
       <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
+      <c r="X55" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z55" s="36"/>
       <c r="AA55" s="19"/>
     </row>
@@ -3914,7 +4010,7 @@
       </c>
       <c r="E56" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -3942,7 +4038,9 @@
       <c r="V56" s="36"/>
       <c r="W56" s="36"/>
       <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
+      <c r="Y56" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z56" s="36"/>
       <c r="AA56" s="19"/>
     </row>
@@ -3991,7 +4089,7 @@
       <c r="V57" s="36"/>
       <c r="W57" s="36"/>
       <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
+      <c r="Y57" s="37"/>
       <c r="Z57" s="36"/>
       <c r="AA57" s="19"/>
     </row>
@@ -4055,7 +4153,7 @@
       </c>
       <c r="E59" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
@@ -4082,8 +4180,12 @@
       <c r="U59" s="36"/>
       <c r="V59" s="36"/>
       <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
+      <c r="X59" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z59" s="36"/>
       <c r="AA59" s="19"/>
     </row>
@@ -4102,7 +4204,7 @@
       </c>
       <c r="E60" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -4125,10 +4227,16 @@
       <c r="S60" s="36"/>
       <c r="T60" s="36"/>
       <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
+      <c r="V60" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="W60" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
+      <c r="Y60" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z60" s="36"/>
       <c r="AA60" s="19"/>
     </row>
@@ -4147,7 +4255,7 @@
       </c>
       <c r="E61" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -4175,7 +4283,9 @@
       <c r="V61" s="36"/>
       <c r="W61" s="36"/>
       <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
+      <c r="Y61" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z61" s="36"/>
       <c r="AA61" s="19"/>
     </row>
@@ -4296,7 +4406,7 @@
       </c>
       <c r="E64" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -4325,7 +4435,9 @@
       <c r="U64" s="36"/>
       <c r="V64" s="36"/>
       <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
+      <c r="X64" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Y64" s="36"/>
       <c r="Z64" s="36"/>
       <c r="AA64" s="19"/>
@@ -4345,7 +4457,7 @@
       </c>
       <c r="E65" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4375,7 +4487,9 @@
       <c r="V65" s="37"/>
       <c r="W65" s="36"/>
       <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
+      <c r="Y65" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z65" s="36"/>
       <c r="AA65" s="19"/>
     </row>
